--- a/results/VIGraphs.xlsx
+++ b/results/VIGraphs.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="33700" windowHeight="17580" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ESvES2" localSheetId="0">Sheet1!$B$6:$F$33</definedName>
-    <definedName name="nu100_" localSheetId="0">Sheet1!$Q$6:$X$33</definedName>
-    <definedName name="nu200_" localSheetId="0">Sheet1!$Z$6:$AG$33</definedName>
-    <definedName name="nu50_" localSheetId="0">Sheet1!$H$6:$O$33</definedName>
+    <definedName name="ESvES2" localSheetId="0">all!$B$6:$F$33</definedName>
+    <definedName name="nu100_" localSheetId="0">all!$Q$6:$X$33</definedName>
+    <definedName name="nu200_" localSheetId="0">all!$Z$6:$AG$33</definedName>
+    <definedName name="nu50_" localSheetId="0">all!$H$6:$O$33</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>Results for ESvES2 copy.txt</t>
   </si>
@@ -129,12 +129,30 @@
   <si>
     <t>Variation</t>
   </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>AdaptML</t>
+  </si>
+  <si>
+    <t>Baps</t>
+  </si>
+  <si>
+    <t>Ecotype Simulation 2</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Ecotype Simulation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +176,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,21 +201,114 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -212,31 +330,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ES</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs ES2 for nu of 50</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -247,7 +341,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$7</c:f>
+              <c:f>all!$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -264,7 +358,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$8:$E$33</c:f>
+              <c:f>all!$E$8:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -356,7 +450,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$7</c:f>
+              <c:f>all!$F$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -375,7 +469,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$8:$F$33</c:f>
+              <c:f>all!$F$8:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -472,15 +566,15 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090537256"/>
-        <c:axId val="2090617256"/>
+        <c:axId val="2051371720"/>
+        <c:axId val="2057814408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090537256"/>
+        <c:axId val="2051371720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -506,10 +600,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090617256"/>
+        <c:crossAx val="2057814408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -517,7 +612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090617256"/>
+        <c:axId val="2057814408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,7 +646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090537256"/>
+        <c:crossAx val="2051371720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -560,6 +655,16 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -592,31 +697,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>All demarcators</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> on nu of 50</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -627,7 +708,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$7</c:f>
+              <c:f>all!$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -644,7 +725,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$8:$K$33</c:f>
+              <c:f>all!$K$8:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -736,7 +817,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$7</c:f>
+              <c:f>all!$L$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -753,7 +834,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$8:$L$33</c:f>
+              <c:f>all!$L$8:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -845,7 +926,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$7</c:f>
+              <c:f>all!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -862,7 +943,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$8:$M$33</c:f>
+              <c:f>all!$M$8:$M$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -954,7 +1035,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$7</c:f>
+              <c:f>all!$O$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -973,7 +1054,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$8:$N$33</c:f>
+              <c:f>all!$O$8:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1065,7 +1146,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$7</c:f>
+              <c:f>all!$P$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1079,7 +1160,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$8:$O$33</c:f>
+              <c:f>all!$P$8:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1160,6 +1241,109 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>4.21377645808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>es</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cmpd="sng">
+              <a:prstDash val="dash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>all!$N$8:$N$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.673482168912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.321142609407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.333886400573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.37320979706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.927909278696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4816546708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.70349809226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.22894291595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.15608430732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.485643205207</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.983387941228</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30142432336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.23291706212</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.04731588468</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.797618949029</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.37988448326</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.10765021286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.42062857123</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.616034869164</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.222071124879</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10751685016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.50631299666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.18006168118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.699877060146</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.79223391517</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8272644064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,15 +1360,15 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106092360"/>
-        <c:axId val="2106114264"/>
+        <c:axId val="2059753304"/>
+        <c:axId val="2056141128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106092360"/>
+        <c:axId val="2059753304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1208,7 +1392,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106114264"/>
+        <c:crossAx val="2056141128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1216,7 +1400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106114264"/>
+        <c:axId val="2056141128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106092360"/>
+        <c:crossAx val="2059753304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1286,26 +1470,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>All demarcators on nu of 100</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1316,7 +1481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$T$7</c:f>
+              <c:f>all!$T$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1333,7 +1498,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$8:$T$33</c:f>
+              <c:f>all!$T$8:$T$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1425,7 +1590,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$7</c:f>
+              <c:f>all!$U$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1442,7 +1607,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$8:$U$33</c:f>
+              <c:f>all!$U$8:$U$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1534,7 +1699,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$V$7</c:f>
+              <c:f>all!$V$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1551,7 +1716,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$V$8:$V$33</c:f>
+              <c:f>all!$V$8:$V$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1643,7 +1808,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$7</c:f>
+              <c:f>all!$W$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1662,7 +1827,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$8:$W$33</c:f>
+              <c:f>all!$W$8:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1754,7 +1919,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$X$7</c:f>
+              <c:f>all!$X$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1768,7 +1933,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$X$8:$X$33</c:f>
+              <c:f>all!$X$8:$X$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1865,15 +2030,15 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2093860408"/>
-        <c:axId val="2105541160"/>
+        <c:axId val="2059578344"/>
+        <c:axId val="2058543416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2093860408"/>
+        <c:axId val="2059578344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -1897,7 +2062,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105541160"/>
+        <c:crossAx val="2058543416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1905,7 +2070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105541160"/>
+        <c:axId val="2058543416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +2099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2093860408"/>
+        <c:crossAx val="2059578344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1975,26 +2140,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>All demarcators on nu of 200</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2005,7 +2151,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AC$7</c:f>
+              <c:f>all!$AC$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2022,7 +2168,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AC$8:$AC$33</c:f>
+              <c:f>all!$AC$8:$AC$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2114,7 +2260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AD$7</c:f>
+              <c:f>all!$AD$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2131,7 +2277,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AD$8:$AD$33</c:f>
+              <c:f>all!$AD$8:$AD$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2223,7 +2369,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AE$7</c:f>
+              <c:f>all!$AE$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2240,7 +2386,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AE$8:$AE$33</c:f>
+              <c:f>all!$AE$8:$AE$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2332,7 +2478,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AF$7</c:f>
+              <c:f>all!$AF$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2351,7 +2497,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$8:$AF$33</c:f>
+              <c:f>all!$AF$8:$AF$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2443,7 +2589,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AG$7</c:f>
+              <c:f>all!$AG$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2457,7 +2603,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AG$8:$AG$33</c:f>
+              <c:f>all!$AG$8:$AG$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2554,15 +2700,15 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109077336"/>
-        <c:axId val="2094613000"/>
+        <c:axId val="2057989864"/>
+        <c:axId val="2059568392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109077336"/>
+        <c:axId val="2057989864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2591,7 +2737,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094613000"/>
+        <c:crossAx val="2059568392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2599,7 +2745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094613000"/>
+        <c:axId val="2059568392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2628,7 +2774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109077336"/>
+        <c:crossAx val="2057989864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2660,15 +2806,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2689,16 +2835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2719,16 +2865,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2749,16 +2895,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3118,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AG35"/>
+  <dimension ref="A6:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3193,9 +3339,12 @@
         <v>9</v>
       </c>
       <c r="N7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
         <v>5</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>10</v>
       </c>
       <c r="Q7" t="s">
@@ -3282,9 +3431,12 @@
         <v>1.5434762955800001</v>
       </c>
       <c r="N8">
+        <v>0.67348216891199997</v>
+      </c>
+      <c r="O8">
         <v>1.66584191949</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>3.2006092760199998</v>
       </c>
       <c r="Q8">
@@ -3371,9 +3523,12 @@
         <v>1.1858402962300001</v>
       </c>
       <c r="N9">
+        <v>0.32114260940700001</v>
+      </c>
+      <c r="O9">
         <v>1.2699881612399999</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>3.3708421747699999</v>
       </c>
       <c r="Q9">
@@ -3460,9 +3615,12 @@
         <v>0.94823541044000004</v>
       </c>
       <c r="N10">
+        <v>0.33388640057300001</v>
+      </c>
+      <c r="O10">
         <v>1.12481426061</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3.36158217911</v>
       </c>
       <c r="Q10">
@@ -3549,9 +3707,12 @@
         <v>2.0294836113699999</v>
       </c>
       <c r="N11">
+        <v>1.3732097970599999</v>
+      </c>
+      <c r="O11">
         <v>1.7630128597800001</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>3.5484315039599998</v>
       </c>
       <c r="Q11">
@@ -3638,9 +3799,12 @@
         <v>1.41621593954</v>
       </c>
       <c r="N12">
+        <v>0.92790927869600004</v>
+      </c>
+      <c r="O12">
         <v>1.34363156923</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2.9914827445399998</v>
       </c>
       <c r="Q12">
@@ -3727,9 +3891,12 @@
         <v>1.1928974993100001</v>
       </c>
       <c r="N13">
+        <v>1.4816546708</v>
+      </c>
+      <c r="O13">
         <v>1.1135870719700001</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>3.1484957320000002</v>
       </c>
       <c r="Q13">
@@ -3816,9 +3983,12 @@
         <v>2.30816356413</v>
       </c>
       <c r="N14">
+        <v>1.70349809226</v>
+      </c>
+      <c r="O14">
         <v>1.9466986770000001</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3.37516832817</v>
       </c>
       <c r="Q14">
@@ -3905,9 +4075,12 @@
         <v>2.5651541955899999</v>
       </c>
       <c r="N15">
+        <v>2.2289429159499998</v>
+      </c>
+      <c r="O15">
         <v>2.39189073387</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3.0626803623900001</v>
       </c>
       <c r="Q15">
@@ -3994,9 +4167,12 @@
         <v>1.64003801727</v>
       </c>
       <c r="N16">
+        <v>2.15608430732</v>
+      </c>
+      <c r="O16">
         <v>1.9617840104399999</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>3.2035202785500001</v>
       </c>
       <c r="Q16">
@@ -4083,9 +4259,12 @@
         <v>2.01136264856</v>
       </c>
       <c r="N17">
+        <v>0.48564320520699999</v>
+      </c>
+      <c r="O17">
         <v>1.0665333861899999</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>3.6063666701899999</v>
       </c>
       <c r="Q17">
@@ -4172,9 +4351,12 @@
         <v>1.72825671335</v>
       </c>
       <c r="N18">
+        <v>0.983387941228</v>
+      </c>
+      <c r="O18">
         <v>1.22936403886</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>3.6719553577599999</v>
       </c>
       <c r="Q18">
@@ -4261,9 +4443,12 @@
         <v>1.80238201145</v>
       </c>
       <c r="N19">
+        <v>0.30142432336000002</v>
+      </c>
+      <c r="O19">
         <v>1.31968877806</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>3.5240378039400002</v>
       </c>
       <c r="Q19">
@@ -4350,9 +4535,12 @@
         <v>2.7413970706100002</v>
       </c>
       <c r="N20">
+        <v>1.2329170621200001</v>
+      </c>
+      <c r="O20">
         <v>1.2328090195999999</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>3.5162278200200001</v>
       </c>
       <c r="Q20">
@@ -4439,9 +4627,12 @@
         <v>2.53030312959</v>
       </c>
       <c r="N21">
+        <v>1.0473158846799999</v>
+      </c>
+      <c r="O21">
         <v>1.36595250887</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>3.5835439079400002</v>
       </c>
       <c r="Q21">
@@ -4528,9 +4719,12 @@
         <v>2.2823570134</v>
       </c>
       <c r="N22">
+        <v>0.79761894902899999</v>
+      </c>
+      <c r="O22">
         <v>1.46525050842</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>3.6519659234100001</v>
       </c>
       <c r="Q22">
@@ -4617,9 +4811,12 @@
         <v>3.0298532146300001</v>
       </c>
       <c r="N23">
+        <v>2.3798844832600001</v>
+      </c>
+      <c r="O23">
         <v>1.91214875248</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3.5651451162600001</v>
       </c>
       <c r="Q23">
@@ -4706,9 +4903,12 @@
         <v>3.20453121668</v>
       </c>
       <c r="N24">
+        <v>3.1076502128599999</v>
+      </c>
+      <c r="O24">
         <v>2.06787862905</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>3.74182563408</v>
       </c>
       <c r="Q24">
@@ -4795,9 +4995,12 @@
         <v>2.50589555029</v>
       </c>
       <c r="N25">
+        <v>2.42062857123</v>
+      </c>
+      <c r="O25">
         <v>1.98854342411</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>3.78030694481</v>
       </c>
       <c r="Q25">
@@ -4884,9 +5087,12 @@
         <v>2.3674936933100001</v>
       </c>
       <c r="N26">
+        <v>0.61603486916399997</v>
+      </c>
+      <c r="O26">
         <v>1.5734254515599999</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>4.1661033747299996</v>
       </c>
       <c r="Q26">
@@ -4973,9 +5179,12 @@
         <v>2.4363731783599998</v>
       </c>
       <c r="N27">
+        <v>0.22207112487899999</v>
+      </c>
+      <c r="O27">
         <v>1.6319462203099999</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3.9592162677</v>
       </c>
       <c r="Q27">
@@ -5062,9 +5271,12 @@
         <v>2.3153524883299998</v>
       </c>
       <c r="N28">
+        <v>0.10751685016</v>
+      </c>
+      <c r="O28">
         <v>1.4252587077400001</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>3.9963360007199999</v>
       </c>
       <c r="Q28">
@@ -5151,9 +5363,12 @@
         <v>3.5942658821900002</v>
       </c>
       <c r="N29">
+        <v>1.50631299666</v>
+      </c>
+      <c r="O29">
         <v>1.61590021889</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>4.0391184541399996</v>
       </c>
       <c r="Q29">
@@ -5240,9 +5455,12 @@
         <v>3.50255149406</v>
       </c>
       <c r="N30">
+        <v>1.18006168118</v>
+      </c>
+      <c r="O30">
         <v>1.5550071588700001</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>4.1105748710099999</v>
       </c>
       <c r="Q30">
@@ -5329,9 +5547,12 @@
         <v>3.2189747532099999</v>
       </c>
       <c r="N31">
+        <v>0.69987706014600004</v>
+      </c>
+      <c r="O31">
         <v>1.39486620152</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>4.05292287313</v>
       </c>
       <c r="Q31">
@@ -5418,9 +5639,12 @@
         <v>3.71305717597</v>
       </c>
       <c r="N32">
+        <v>2.7922339151700002</v>
+      </c>
+      <c r="O32">
         <v>2.0590505185699999</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>3.9779361693999999</v>
       </c>
       <c r="Q32">
@@ -5507,9 +5731,12 @@
         <v>3.5369972660600002</v>
       </c>
       <c r="N33">
+        <v>2.8272644063999999</v>
+      </c>
+      <c r="O33">
         <v>1.84333635323</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>4.2137764580799999</v>
       </c>
       <c r="Q33">
@@ -5574,23 +5801,27 @@
         <v>1.5963009180336922</v>
       </c>
       <c r="K34">
-        <f>AVERAGE(K8:K33)</f>
+        <f t="shared" ref="K34:P34" si="0">AVERAGE(K8:K33)</f>
         <v>2.7673716385527811</v>
       </c>
       <c r="L34">
-        <f>AVERAGE(L8:L33)</f>
+        <f t="shared" si="0"/>
         <v>3.1856234427049683</v>
       </c>
       <c r="M34">
-        <f>AVERAGE(M8:M33)</f>
+        <f t="shared" si="0"/>
         <v>2.3596503588273077</v>
       </c>
       <c r="N34">
-        <f>AVERAGE(N8:N33)</f>
+        <f t="shared" si="0"/>
+        <v>1.3041405299119617</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
         <v>1.5895465053830766</v>
       </c>
-      <c r="O34">
-        <f>AVERAGE(O8:O33)</f>
+      <c r="P34">
+        <f t="shared" si="0"/>
         <v>3.6315450856473079</v>
       </c>
       <c r="T34">
@@ -5647,23 +5878,27 @@
         <v>0.3438380453455151</v>
       </c>
       <c r="K35">
-        <f>STDEV(K8:K34)</f>
+        <f t="shared" ref="K35:P35" si="1">STDEV(K8:K34)</f>
         <v>0.97137385105487528</v>
       </c>
       <c r="L35">
-        <f>STDEV(L8:L34)</f>
+        <f t="shared" si="1"/>
         <v>0.86877529411187271</v>
       </c>
       <c r="M35">
-        <f>STDEV(M8:M34)</f>
+        <f t="shared" si="1"/>
         <v>0.78322806625704622</v>
       </c>
       <c r="N35">
-        <f>STDEV(N8:N34)</f>
+        <f t="shared" si="1"/>
+        <v>0.87745416307340185</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
         <v>0.34336825990440234</v>
       </c>
-      <c r="O35">
-        <f>STDEV(O8:O34)</f>
+      <c r="P35">
+        <f t="shared" si="1"/>
         <v>0.34949856973957899</v>
       </c>
       <c r="T35">
@@ -5704,6 +5939,198 @@
       </c>
       <c r="AG35">
         <f>STDEV(AG8:AG34)</f>
+        <v>0.25811268477359744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" t="s">
+        <v>18</v>
+      </c>
+      <c r="P39" t="s">
+        <v>19</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40">
+        <v>1.3041405299119617</v>
+      </c>
+      <c r="F40">
+        <v>1.5963009180336922</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40">
+        <v>2.7673716385527811</v>
+      </c>
+      <c r="L40">
+        <v>3.1856234427049683</v>
+      </c>
+      <c r="M40">
+        <v>2.3596503588273077</v>
+      </c>
+      <c r="N40">
+        <v>1.3041405299119617</v>
+      </c>
+      <c r="O40">
+        <v>1.5895465053830766</v>
+      </c>
+      <c r="P40">
+        <v>3.6315450856473079</v>
+      </c>
+      <c r="S40" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40">
+        <v>3.1425550407563803</v>
+      </c>
+      <c r="U40">
+        <v>3.8600060184775069</v>
+      </c>
+      <c r="V40">
+        <v>3.3635307922607698</v>
+      </c>
+      <c r="W40">
+        <v>1.7628293233407695</v>
+      </c>
+      <c r="X40">
+        <v>4.4751845641500001</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC40">
+        <v>1.5434243943927504</v>
+      </c>
+      <c r="AD40">
+        <v>2.9081339237960151</v>
+      </c>
+      <c r="AE40">
+        <v>3.2650038811876927</v>
+      </c>
+      <c r="AF40">
+        <v>1.9557141638796152</v>
+      </c>
+      <c r="AG40">
+        <v>4.6675310014734617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>0.87745416307340185</v>
+      </c>
+      <c r="F41">
+        <v>0.3438380453455151</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41">
+        <v>0.97137385105487528</v>
+      </c>
+      <c r="L41">
+        <v>0.86877529411187271</v>
+      </c>
+      <c r="M41">
+        <v>0.78322806625704622</v>
+      </c>
+      <c r="N41">
+        <v>0.87745416307340185</v>
+      </c>
+      <c r="O41">
+        <v>0.34336825990440234</v>
+      </c>
+      <c r="P41">
+        <v>0.34949856973957899</v>
+      </c>
+      <c r="S41" t="s">
+        <v>15</v>
+      </c>
+      <c r="T41">
+        <v>0.72787050626085392</v>
+      </c>
+      <c r="U41">
+        <v>0.63962517693478504</v>
+      </c>
+      <c r="V41">
+        <v>0.67100242031567858</v>
+      </c>
+      <c r="W41">
+        <v>0.3707484811087271</v>
+      </c>
+      <c r="X41">
+        <v>0.22536871422163254</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC41">
+        <v>0.7481047220024577</v>
+      </c>
+      <c r="AD41">
+        <v>0.7138760967827229</v>
+      </c>
+      <c r="AE41">
+        <v>0.59283445958875658</v>
+      </c>
+      <c r="AF41">
+        <v>0.33348658961408462</v>
+      </c>
+      <c r="AG41">
         <v>0.25811268477359744</v>
       </c>
     </row>

--- a/results/VIGraphs.xlsx
+++ b/results/VIGraphs.xlsx
@@ -332,7 +332,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.126060507606452"/>
+          <c:y val="0.0510816762311491"/>
+          <c:w val="0.842386094335295"/>
+          <c:h val="0.869822278571111"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -566,11 +576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2051371720"/>
-        <c:axId val="2057814408"/>
+        <c:axId val="2106375464"/>
+        <c:axId val="2106381192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2051371720"/>
+        <c:axId val="2106375464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -587,7 +597,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Different</a:t>
+                  <a:t>different</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -604,7 +614,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057814408"/>
+        <c:crossAx val="2106381192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -612,7 +622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2057814408"/>
+        <c:axId val="2106381192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,14 +656,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2051371720"/>
+        <c:crossAx val="2106375464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.292397943582295"/>
+          <c:y val="0.189265536723164"/>
+          <c:w val="0.250155378029203"/>
+          <c:h val="0.0567313937452734"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -699,7 +718,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11777081436249"/>
+          <c:y val="0.0479857117579404"/>
+          <c:w val="0.852750727587623"/>
+          <c:h val="0.873362602848801"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -816,15 +845,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>all!$L$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>amltwenty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>aml*</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cmpd="sng"/>
@@ -1360,11 +1381,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2059753304"/>
-        <c:axId val="2056141128"/>
+        <c:axId val="2106429816"/>
+        <c:axId val="2106435480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2059753304"/>
+        <c:axId val="2106429816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1402,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Different parameter sets</a:t>
+                  <a:t>different parameter sets</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1392,7 +1413,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2056141128"/>
+        <c:crossAx val="2106435480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1400,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2056141128"/>
+        <c:axId val="2106435480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1429,14 +1450,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059753304"/>
+        <c:crossAx val="2106429816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.179526487760458"/>
+          <c:y val="0.0449438202247191"/>
+          <c:w val="0.432330244433731"/>
+          <c:h val="0.210907060072547"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1472,7 +1502,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0976743903708071"/>
+          <c:y val="0.0548359580052493"/>
+          <c:w val="0.873691248395713"/>
+          <c:h val="0.864704271879808"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1589,15 +1629,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>all!$U$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>amltwenty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>aml*</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cmpd="sng"/>
@@ -2030,11 +2062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2059578344"/>
-        <c:axId val="2058543416"/>
+        <c:axId val="2106475688"/>
+        <c:axId val="2106481416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2059578344"/>
+        <c:axId val="2106475688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2083,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Different parameter sets</a:t>
+                  <a:t>different parameter sets</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2062,7 +2094,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2058543416"/>
+        <c:crossAx val="2106481416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2070,7 +2102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2058543416"/>
+        <c:axId val="2106481416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2099,14 +2131,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059578344"/>
+        <c:crossAx val="2106475688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.142958479309029"/>
+          <c:y val="0.0316091954022988"/>
+          <c:w val="0.377078462659128"/>
+          <c:h val="0.215755498235134"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2142,7 +2183,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0966103991902973"/>
+          <c:y val="0.0405847648006535"/>
+          <c:w val="0.875067160722557"/>
+          <c:h val="0.87872359254805"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2259,15 +2310,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>all!$AD$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>amltwenty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>aml*</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cmpd="sng"/>
@@ -2700,11 +2743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2057989864"/>
-        <c:axId val="2059568392"/>
+        <c:axId val="2106522904"/>
+        <c:axId val="2106528888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2057989864"/>
+        <c:axId val="2106522904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2721,7 +2764,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Different parameter</a:t>
+                  <a:t>different parameter</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -2737,7 +2780,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2059568392"/>
+        <c:crossAx val="2106528888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2745,7 +2788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2059568392"/>
+        <c:axId val="2106528888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2805,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Accuracy (VI score)</a:t>
+                  <a:t>accuracy (VI score)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2774,14 +2817,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2057989864"/>
+        <c:crossAx val="2106522904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.164277014392809"/>
+          <c:y val="0.0288184438040346"/>
+          <c:w val="0.394757346508157"/>
+          <c:h val="0.210613583244458"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2807,8 +2859,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
@@ -2931,7 +2983,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nu100" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ESvES2" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2939,7 +2991,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ESvES2" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nu100" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3266,8 +3318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
